--- a/Output Data1.xlsx
+++ b/Output Data1.xlsx
@@ -4426,7 +4426,7 @@
         <v>179.8</v>
       </c>
       <c r="K102" t="n">
-        <v>-89.60000000000002</v>
+        <v>-89.60000000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4582,7 +4582,7 @@
         <v>172.8</v>
       </c>
       <c r="K106" t="n">
-        <v>-86.10000000000002</v>
+        <v>-86.10000000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4738,7 +4738,7 @@
         <v>135</v>
       </c>
       <c r="K110" t="n">
-        <v>-44.80000000000001</v>
+        <v>-44.8</v>
       </c>
     </row>
     <row r="111">
@@ -4816,7 +4816,7 @@
         <v>172.8</v>
       </c>
       <c r="K112" t="n">
-        <v>-86.10000000000002</v>
+        <v>-86.10000000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4894,7 +4894,7 @@
         <v>172.8</v>
       </c>
       <c r="K114" t="n">
-        <v>-86.10000000000002</v>
+        <v>-86.10000000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4933,7 +4933,7 @@
         <v>172.8</v>
       </c>
       <c r="K115" t="n">
-        <v>-86.10000000000002</v>
+        <v>-86.10000000000001</v>
       </c>
     </row>
     <row r="116">
@@ -5011,7 +5011,7 @@
         <v>172.8</v>
       </c>
       <c r="K117" t="n">
-        <v>-86.10000000000002</v>
+        <v>-86.10000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -5089,7 +5089,7 @@
         <v>107.3</v>
       </c>
       <c r="K119" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
